--- a/云原生知识学习.xlsx
+++ b/云原生知识学习.xlsx
@@ -37,7 +37,7 @@
     <t>1，网关---------Spring Cloud Gateway（代替Zuul，以及Spring Cloud Security）</t>
   </si>
   <si>
-    <t>2，服务注册与服务发现---------Spring Cloud Netflix Eureka, Spring Cloud Netflix Consul</t>
+    <t>2，服务注册与服务发现---------Spring Cloud Netflix Eureka（AP，保证高可用，适用于java）, Spring Cloud Netflix Consul（CP，保证强一致性，适用于多语言）</t>
   </si>
   <si>
     <t>3，负载均衡---------SpringCloud LoadBalancer（代替Ribbon）</t>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/云原生知识学习.xlsx
+++ b/云原生知识学习.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="微服务" sheetId="1" r:id="rId1"/>
-    <sheet name="deops" sheetId="3" r:id="rId2"/>
+    <sheet name="devops" sheetId="3" r:id="rId2"/>
     <sheet name="eureka" sheetId="2" r:id="rId3"/>
+    <sheet name="spring 常用功能" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>一，微服务</t>
   </si>
@@ -116,6 +117,81 @@
   </si>
   <si>
     <t>10，Spring Cloud Kubernetes: Spring Cloud Kubernetes 提供了在 Kubernetes 环境中运行 Spring Boot 应用程序所需的支持和集成。</t>
+  </si>
+  <si>
+    <t>1,spring data jpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ① 对于简单的方法，提供 CrudRepository 接口，可以自动生成数据增删改查的实现，使用时，用@Autowired直接注入即可使用，不需要写sql语句</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ② 对于比较复杂的方法，可以按以下操作实现。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1&gt; 自定义接口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public interface UserRepositoryCustom { List&lt;User&gt; findCustomUsers(); }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2&gt; 实现自定义接口</t>
+  </si>
+  <si>
+    <t>public class UserRepositoryImpl implements UserRepositoryCustom {</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    @PersistenceContext  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//注意这里不能用@Autowired</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    private EntityManager entityManager;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    @Override</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public List&lt;User&gt; findCustomUsers() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // 实现自定义的查询逻辑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return entityManager.createQuery("SELECT u FROM User u WHERE ...", User.class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            .getResultList();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      3&gt; 继承自定义接口</t>
+  </si>
+  <si>
+    <t>public interface UserRepository extends CrudRepository&lt;User, Long&gt;, UserRepositoryCustom {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2，spring context缓存 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ① 在类上面用CacheConfig注解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ② 在方法上面用Cacheable注解</t>
   </si>
 </sst>
 </file>
@@ -128,9 +204,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -288,19 +372,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -615,144 +700,150 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1078,7 +1169,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1234,7 +1325,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1253,8 +1344,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1263,4 +1354,134 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/云原生知识学习.xlsx
+++ b/云原生知识学习.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="微服务" sheetId="1" r:id="rId1"/>
     <sheet name="devops" sheetId="3" r:id="rId2"/>
-    <sheet name="eureka" sheetId="2" r:id="rId3"/>
-    <sheet name="spring 常用功能" sheetId="6" r:id="rId4"/>
+    <sheet name="spring 常用功能" sheetId="6" r:id="rId3"/>
+    <sheet name="云" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
-  <si>
-    <t>一，微服务</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+  <si>
+    <t>微服务常用组件</t>
   </si>
   <si>
     <t>1，网关---------Spring Cloud Gateway（代替Zuul，以及Spring Cloud Security）</t>
@@ -119,6 +119,42 @@
     <t>10，Spring Cloud Kubernetes: Spring Cloud Kubernetes 提供了在 Kubernetes 环境中运行 Spring Boot 应用程序所需的支持和集成。</t>
   </si>
   <si>
+    <t>一、代码版本控制系统</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>二、自动化构建与持续集成</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>三、配置管理与自动化部署</t>
+  </si>
+  <si>
+    <t>docker</t>
+  </si>
+  <si>
+    <t>四、虚拟化与容器化技术</t>
+  </si>
+  <si>
+    <t>kubernates</t>
+  </si>
+  <si>
+    <t>五、配置管理与自动化部署</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>六、监控与日志管理</t>
+  </si>
+  <si>
+    <t>ELK Stack（Elasticsearch、Logstash、Kibana）</t>
+  </si>
+  <si>
     <t>1,spring data jpa</t>
   </si>
   <si>
@@ -141,6 +177,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">    @PersistenceContext  </t>
     </r>
     <r>
@@ -204,7 +247,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +262,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -700,137 +749,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,7 +892,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1169,147 +1221,150 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="2" ht="18.75" spans="1:1">
+      <c r="A2" s="5"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1323,17 +1378,78 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="17.25" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:1">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:1">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1342,27 +1458,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1372,116 +1471,132 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:1">
       <c r="A22" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>